--- a/ProyectoEstacion/Memoria/Rubricas.xlsx
+++ b/ProyectoEstacion/Memoria/Rubricas.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DFBF5E-B2A5-4116-909B-ACEAEC05DDA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,11 +509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +571,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="8"/>
       <c r="I6" t="s">
         <v>28</v>
@@ -727,7 +726,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" t="s">
         <v>33</v>
       </c>

--- a/ProyectoEstacion/Memoria/Rubricas.xlsx
+++ b/ProyectoEstacion/Memoria/Rubricas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36166E0E-6C69-47A0-A37C-58D4209B80FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3FC170-C514-4613-A3D5-DAE43E28F4D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Pensado</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>No responde el uva como si estubiese roto.</t>
-  </si>
-  <si>
-    <t>UART</t>
   </si>
   <si>
     <t>Con el micrófono - DAC - DMA</t>
@@ -116,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +121,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -188,7 +192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -216,6 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +505,7 @@
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +564,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6" t="s">
         <v>26</v>
       </c>
@@ -645,7 +650,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
@@ -658,7 +663,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
@@ -707,25 +712,20 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">

--- a/ProyectoEstacion/Memoria/Rubricas.xlsx
+++ b/ProyectoEstacion/Memoria/Rubricas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3FC170-C514-4613-A3D5-DAE43E28F4D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC0F82C-C4FC-4066-8971-1141B25E0514}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="27">
   <si>
     <t>Pensado</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>No responde el uva como si estubiese roto.</t>
-  </si>
-  <si>
-    <t>Con el micrófono - DAC - DMA</t>
-  </si>
-  <si>
-    <t>Creando el seno a pelo. - DAC - DMA</t>
   </si>
 </sst>
 </file>
@@ -129,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +163,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -219,9 +207,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,223 +527,216 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="11"/>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="11"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
